--- a/SorteioGrupos/documentos/Grupos.xlsx
+++ b/SorteioGrupos/documentos/Grupos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\SENAI\Planos_Ensino\2020_2_Semestre\ProjetoIntegrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\SENAI\Planos_Ensino\2020_2_Semestre\ProjetoIntegrador1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC099A12-CEBB-4844-9482-6AFBAB107009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F023CAC-7506-4549-B60C-67625A2907EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A2EFEAD8-89AC-4165-9D5E-89350841DA2B}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,14 +158,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -632,7 +624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BD4544-8AEA-48A3-B3E4-6C36B3A85DDF}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
